--- a/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>PHUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,101 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F8" s="3">
         <v>5600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>30900</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -769,29 +776,35 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>11800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -810,29 +823,35 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="3">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>19100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,26 +893,28 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>900</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
@@ -909,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,28 +1097,30 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F17" s="3">
         <v>7900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>37700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
@@ -1076,60 +1129,72 @@
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>-600</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1160,55 +1227,61 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>300</v>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>200</v>
       </c>
       <c r="L20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-9700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,8 +1300,14 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1236,28 +1315,28 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1268,31 +1347,37 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-10200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
@@ -1301,21 +1386,27 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1324,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,31 +1488,37 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
@@ -1424,39 +1527,45 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
@@ -1465,16 +1574,22 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1652,57 +1791,63 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-300</v>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>-200</v>
       </c>
       <c r="L32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
@@ -1711,16 +1856,22 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,31 +1911,37 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
@@ -1793,62 +1950,74 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,34 +2052,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -1917,13 +2090,19 @@
         <v>200</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,37 +2142,43 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,29 +2236,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2084,36 +2281,42 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F46" s="3">
         <v>3900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4700</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -2122,13 +2325,19 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2144,32 +2353,38 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
         <v>19700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>19500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>36900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>71600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>71200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>70800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>70400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2180,25 +2395,25 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2209,37 +2424,43 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E49" s="3">
         <v>26100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>26100</v>
+      </c>
+      <c r="G49" s="3">
         <v>26200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>26300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>26300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,37 +2565,43 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>5800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F54" s="3">
         <v>30400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>31000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>31400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>36900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>19700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>19600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>37000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>71800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>71300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>71100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>70800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,40 +2748,42 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F57" s="3">
         <v>9600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>9900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2530,13 +2791,19 @@
       <c r="O57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2545,55 +2812,61 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F59" s="3">
         <v>9900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>8400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>8100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -2612,70 +2885,82 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F60" s="3">
         <v>19500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>17500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>20000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>5400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2694,37 +2979,43 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F62" s="3">
         <v>4200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1700</v>
       </c>
       <c r="M62" s="3">
         <v>1700</v>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F66" s="3">
         <v>23900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>20600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>31100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3200</v>
       </c>
       <c r="L66" s="3">
         <v>2500</v>
       </c>
       <c r="M66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3016,31 +3351,37 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>11700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>11800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>29600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>63500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>63900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>63900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>64000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-127600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-123600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-119700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-117300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-114200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-111800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,28 +3609,34 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F76" s="3">
         <v>6500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>5000</v>
       </c>
       <c r="J76" s="3">
         <v>5000</v>
@@ -3285,8 +3656,14 @@
       <c r="O76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,77 +3703,89 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
@@ -3405,16 +3794,22 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,13 +3825,15 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3445,22 +3842,22 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3869,37 +4328,43 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>17800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>34800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,78 +4564,90 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>6800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-17700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>PHUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30900</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -782,32 +786,35 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,32 +836,35 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,29 +908,30 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
         <v>900</v>
       </c>
       <c r="F12" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G12" s="3">
         <v>1100</v>
       </c>
       <c r="H12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,16 +1006,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1012,8 +1032,8 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6500</v>
+        <v>5300</v>
       </c>
       <c r="E17" s="3">
         <v>6500</v>
       </c>
       <c r="F17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G17" s="3">
         <v>7900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1233,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
@@ -1254,37 +1288,40 @@
         <v>200</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,13 +1343,16 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1321,13 +1361,13 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1338,8 +1378,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1353,63 +1393,69 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1421,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1797,19 +1867,19 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>3300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
@@ -1818,60 +1888,66 @@
         <v>-200</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,31 +2250,31 @@
         <v>900</v>
       </c>
       <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,32 +2338,35 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2287,57 +2386,63 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4700</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2359,32 +2464,35 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>19700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>71600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>71200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>70800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>70400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2401,13 +2509,13 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2415,8 +2523,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,22 +2550,22 @@
         <v>26000</v>
       </c>
       <c r="E49" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="F49" s="3">
         <v>26100</v>
       </c>
       <c r="G49" s="3">
+        <v>26100</v>
+      </c>
+      <c r="H49" s="3">
         <v>26200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>26300</v>
       </c>
       <c r="I49" s="3">
         <v>26300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>26300</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -2462,8 +2573,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2583,7 +2703,7 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2592,19 +2712,19 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>5800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E54" s="3">
         <v>28800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>31400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,43 +2880,44 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E57" s="3">
         <v>10700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>800</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
       </c>
       <c r="L57" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -2797,17 +2928,20 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2818,58 +2952,61 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
@@ -2891,79 +3028,85 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E60" s="3">
         <v>21100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E61" s="3">
         <v>2900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>5400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2985,40 +3128,43 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
       </c>
       <c r="L62" s="3">
+        <v>500</v>
+      </c>
+      <c r="M62" s="3">
         <v>900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1700</v>
       </c>
       <c r="N62" s="3">
         <v>1700</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E66" s="3">
         <v>27500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>31100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1800</v>
       </c>
       <c r="Q66" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,31 +3525,34 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>11700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>11800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>29600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>63500</v>
-      </c>
-      <c r="N70" s="3">
-        <v>63900</v>
       </c>
       <c r="O70" s="3">
         <v>63900</v>
       </c>
       <c r="P70" s="3">
+        <v>63900</v>
+      </c>
+      <c r="Q70" s="3">
         <v>64000</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-131100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-127600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-123600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-119700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-117300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-114200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-111800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-800</v>
       </c>
       <c r="M72" s="3">
         <v>-800</v>
       </c>
       <c r="N72" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="O72" s="3">
         <v>-400</v>
       </c>
       <c r="P72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,31 +3798,34 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>5000</v>
       </c>
       <c r="K76" s="3">
         <v>5000</v>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3848,19 +4047,19 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4334,37 +4564,40 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>17800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>34800</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,67 +4813,73 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -4638,19 +4887,19 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>PHUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>30900</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -789,35 +793,38 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -839,35 +846,38 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,32 +922,33 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>900</v>
       </c>
       <c r="F12" s="3">
         <v>900</v>
       </c>
       <c r="G12" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="H12" s="3">
         <v>1100</v>
       </c>
       <c r="I12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,19 +1026,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1032,11 +1052,11 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6500</v>
       </c>
       <c r="F17" s="3">
         <v>6500</v>
       </c>
       <c r="G17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H17" s="3">
         <v>7900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,13 +1279,14 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1270,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
@@ -1291,40 +1325,43 @@
         <v>200</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,16 +1383,19 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1364,13 +1404,13 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>200</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1381,8 +1421,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1396,69 +1436,75 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1470,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,13 +1913,16 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1870,19 +1940,19 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
@@ -1891,63 +1961,69 @@
         <v>-200</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>400</v>
       </c>
       <c r="R41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,43 +2331,46 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="3">
         <v>900</v>
       </c>
       <c r="F43" s="3">
+        <v>900</v>
+      </c>
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,35 +2437,38 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2389,110 +2488,119 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4700</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
         <v>19700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>71600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>71200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>70800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>70400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2512,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2526,8 +2634,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2553,22 +2664,22 @@
         <v>26000</v>
       </c>
       <c r="F49" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="G49" s="3">
         <v>26100</v>
       </c>
       <c r="H49" s="3">
+        <v>26100</v>
+      </c>
+      <c r="I49" s="3">
         <v>26200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>26300</v>
       </c>
       <c r="J49" s="3">
         <v>26300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>26300</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -2576,8 +2687,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2706,7 +2826,7 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2715,19 +2835,19 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>5800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E54" s="3">
         <v>28200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>31000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>70800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,46 +3011,47 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E57" s="3">
         <v>9700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
       </c>
       <c r="M57" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -2931,20 +3062,23 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2955,61 +3089,64 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E59" s="3">
         <v>9000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -3031,85 +3168,91 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E60" s="3">
         <v>20000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
         <v>4400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>5400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3131,43 +3274,46 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3">
         <v>3300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>500</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
       </c>
       <c r="M62" s="3">
+        <v>500</v>
+      </c>
+      <c r="N62" s="3">
         <v>900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1700</v>
       </c>
       <c r="O62" s="3">
         <v>1700</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E66" s="3">
         <v>27700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>31100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1800</v>
       </c>
       <c r="R66" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3528,31 +3696,34 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>11700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>11800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>29600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>63500</v>
-      </c>
-      <c r="O70" s="3">
-        <v>63900</v>
       </c>
       <c r="P70" s="3">
         <v>63900</v>
       </c>
       <c r="Q70" s="3">
+        <v>63900</v>
+      </c>
+      <c r="R70" s="3">
         <v>64000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-139600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-131100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-127600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-123600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-119700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-117300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-114200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-111800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-800</v>
       </c>
       <c r="N72" s="3">
         <v>-800</v>
       </c>
       <c r="O72" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="P72" s="3">
         <v>-400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,34 +3984,37 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>5000</v>
       </c>
       <c r="L76" s="3">
         <v>5000</v>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4038,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4050,19 +4249,19 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4567,37 +4797,40 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>17800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>34800</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,14 +5124,14 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -4890,19 +5139,19 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,128 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>30900</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -796,41 +803,47 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -849,41 +862,47 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="E10" s="3">
         <v>1400</v>
       </c>
       <c r="F10" s="3">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="G10" s="3">
         <v>1400</v>
       </c>
       <c r="H10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J10" s="3">
         <v>3200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>19100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -902,8 +921,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,38 +948,40 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,25 +1062,31 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3">
         <v>5500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1055,14 +1094,14 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1082,8 +1121,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,40 +1204,42 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F17" s="3">
         <v>11600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>37700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
@@ -1195,72 +1248,84 @@
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-6800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3">
         <v>-600</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,20 +1345,22 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1307,67 +1374,73 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
-      </c>
-      <c r="N20" s="3">
-        <v>300</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
       <c r="P20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
       <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
+        <v>200</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-9700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,49 +1459,55 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1439,43 +1518,49 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
@@ -1484,16 +1569,22 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1503,14 +1594,14 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1519,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1545,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,43 +1695,49 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
@@ -1643,51 +1746,57 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
@@ -1696,16 +1805,22 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,20 +2049,26 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1943,69 +2082,75 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-300</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
       <c r="P32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
       <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
@@ -2014,16 +2159,22 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,43 +2226,49 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
@@ -2120,74 +2277,86 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,46 +2399,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2276,13 +2449,19 @@
         <v>200</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,49 +2513,55 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2387,8 +2572,14 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,41 +2631,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2491,48 +2688,54 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4700</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -2541,13 +2744,19 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2572,40 +2781,46 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3">
         <v>19700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>19500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>36900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>71600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>71200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>70800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>70400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2623,25 +2838,25 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2652,8 +2867,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2667,34 +2888,34 @@
         <v>26000</v>
       </c>
       <c r="G49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I49" s="3">
         <v>26100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>26100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>26200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>26300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>26300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,16 +3044,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
@@ -2829,31 +3068,31 @@
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2864,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F54" s="3">
         <v>29400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>28200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>28800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>29100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>30400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>31000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>31400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>36900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>19700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>19600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>37000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>71800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>71300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>71100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>70800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,52 +3271,54 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F57" s="3">
         <v>9100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>10200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>9100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3065,26 +3326,32 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -3092,67 +3359,73 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F59" s="3">
         <v>16200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>8400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -3171,94 +3444,106 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F60" s="3">
         <v>26900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>20000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>21100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>19800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>19500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>17500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>16100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>20000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F61" s="3">
         <v>4800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>5400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3277,49 +3562,55 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>4100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>5100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1700</v>
       </c>
       <c r="Q62" s="3">
         <v>1700</v>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U62" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F66" s="3">
         <v>34200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>27700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>27500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>25000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>23900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>22900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>20600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>31100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3200</v>
       </c>
       <c r="P66" s="3">
         <v>2500</v>
       </c>
       <c r="Q66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3699,31 +4034,37 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>11700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>11800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>29600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>63500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>63900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>63900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>64000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-158200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-145800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-139600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-131100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-127600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-123600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-119700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-117300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-114200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-111800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,40 +4352,46 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>5000</v>
       </c>
       <c r="N76" s="3">
         <v>5000</v>
@@ -4040,8 +4411,14 @@
       <c r="S76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="U76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,101 +4470,113 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
@@ -4196,16 +4585,22 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4240,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4252,22 +4649,22 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4278,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,13 +5229,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4800,37 +5259,43 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>17800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>34800</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>100</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>6800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-17700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5124,40 +5621,40 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5168,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>PHUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30900</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -809,44 +813,47 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,44 +875,47 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,41 +963,42 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>900</v>
       </c>
       <c r="I12" s="3">
         <v>900</v>
       </c>
       <c r="J12" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K12" s="3">
         <v>1100</v>
       </c>
       <c r="L12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,28 +1085,31 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>5800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1100,11 +1120,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E17" s="3">
         <v>10900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6500</v>
       </c>
       <c r="I17" s="3">
         <v>6500</v>
       </c>
       <c r="J17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K17" s="3">
         <v>7900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,23 +1380,24 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1380,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
@@ -1401,49 +1435,52 @@
         <v>200</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,25 +1502,28 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="3">
         <v>2200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1492,13 +1532,13 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>200</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1509,8 +1549,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1600,11 +1646,11 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1616,19 +1662,19 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,23 +2122,26 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2088,19 +2158,19 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
@@ -2109,72 +2179,78 @@
         <v>-200</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
         <v>23500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
-      </c>
-      <c r="T41" s="3">
-        <v>400</v>
       </c>
       <c r="U41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,52 +2609,55 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>900</v>
       </c>
       <c r="H43" s="3">
         <v>900</v>
       </c>
       <c r="I43" s="3">
+        <v>900</v>
+      </c>
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,44 +2733,47 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2694,69 +2793,75 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E46" s="3">
         <v>26300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4700</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2787,44 +2892,47 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>19700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>36900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>71600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>71200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>70800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>70400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
@@ -2844,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2858,8 +2966,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2894,22 +3005,22 @@
         <v>26000</v>
       </c>
       <c r="I49" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="J49" s="3">
         <v>26100</v>
       </c>
       <c r="K49" s="3">
+        <v>26100</v>
+      </c>
+      <c r="L49" s="3">
         <v>26200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>26300</v>
       </c>
       <c r="M49" s="3">
         <v>26300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>26300</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>4</v>
@@ -2917,8 +3028,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3062,7 +3182,7 @@
         <v>900</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
@@ -3074,7 +3194,7 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -3083,19 +3203,19 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E54" s="3">
         <v>54900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>31800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>30400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>70800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,55 +3403,56 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9900</v>
-      </c>
-      <c r="N57" s="3">
-        <v>800</v>
       </c>
       <c r="O57" s="3">
         <v>800</v>
       </c>
       <c r="P57" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3332,29 +3463,32 @@
       <c r="U57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>10000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -3365,70 +3499,73 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E59" s="3">
         <v>12600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -3450,67 +3587,73 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E60" s="3">
         <v>30400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,35 +3661,35 @@
         <v>3900</v>
       </c>
       <c r="E61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F61" s="3">
         <v>4000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>5400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3568,52 +3711,55 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3">
         <v>4000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>500</v>
       </c>
       <c r="O62" s="3">
         <v>500</v>
       </c>
       <c r="P62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>900</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1700</v>
       </c>
       <c r="R62" s="3">
         <v>1700</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E66" s="3">
         <v>38400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1800</v>
       </c>
       <c r="U66" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4040,31 +4208,34 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>11700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>11800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>29600</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>63500</v>
-      </c>
-      <c r="R70" s="3">
-        <v>63900</v>
       </c>
       <c r="S70" s="3">
         <v>63900</v>
       </c>
       <c r="T70" s="3">
+        <v>63900</v>
+      </c>
+      <c r="U70" s="3">
         <v>64000</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-166500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-158200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-145800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-139600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-131100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-127600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-123600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-119700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-117300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-114200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-111800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-800</v>
       </c>
       <c r="Q72" s="3">
         <v>-800</v>
       </c>
       <c r="R72" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="S72" s="3">
         <v>-400</v>
       </c>
       <c r="T72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U72" s="3">
         <v>-300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,43 +4541,46 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E76" s="3">
         <v>16600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>5000</v>
       </c>
       <c r="O76" s="3">
         <v>5000</v>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,13 +4820,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4643,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4655,19 +4854,19 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,17 +5462,20 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5265,37 +5495,40 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>17800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>34800</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E100" s="3">
         <v>27900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-17700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5621,23 +5870,23 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -5645,19 +5894,19 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E102" s="3">
         <v>19500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>PHUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,142 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="E8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30900</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -816,47 +820,50 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>800</v>
+      </c>
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
-        <v>700</v>
-      </c>
-      <c r="F9" s="3">
-        <v>600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -878,47 +885,50 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,44 +977,45 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>800</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>900</v>
       </c>
       <c r="J12" s="3">
         <v>900</v>
       </c>
       <c r="K12" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="L12" s="3">
         <v>1100</v>
       </c>
       <c r="M12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N12" s="3">
         <v>1300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,31 +1105,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3000</v>
+        <v>-2900</v>
       </c>
       <c r="E14" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F14" s="3">
         <v>5800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1123,11 +1143,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8600</v>
+        <v>3300</v>
       </c>
       <c r="E17" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F17" s="3">
         <v>10900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>6500</v>
       </c>
       <c r="J17" s="3">
         <v>6500</v>
       </c>
       <c r="K17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L17" s="3">
         <v>7900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
       <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7200</v>
+        <v>-1100</v>
       </c>
       <c r="E18" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,26 +1414,27 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1417,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
@@ -1438,52 +1472,55 @@
         <v>200</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6500</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,28 +1542,31 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>1800</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1535,13 +1575,13 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>200</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1552,8 +1592,8 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8300</v>
+        <v>400</v>
       </c>
       <c r="E23" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,11 +1695,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1665,19 +1711,19 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8300</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8300</v>
+        <v>400</v>
       </c>
       <c r="E27" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,26 +2192,29 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-700</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2161,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
@@ -2182,75 +2252,81 @@
         <v>-200</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8300</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8300</v>
+        <v>400</v>
       </c>
       <c r="E35" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
-      </c>
-      <c r="U41" s="3">
-        <v>400</v>
       </c>
       <c r="V41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,55 +2702,58 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>900</v>
       </c>
       <c r="I43" s="3">
         <v>900</v>
       </c>
       <c r="J43" s="3">
+        <v>900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,47 +2832,50 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2796,72 +2895,78 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
         <v>5700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>26300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4700</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2895,47 +3000,50 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
         <v>19700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>36900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>71600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>71200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>70800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>70400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
@@ -2955,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>100</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2969,8 +3077,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2984,13 +3092,16 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="E49" s="3">
         <v>26000</v>
@@ -3008,22 +3119,22 @@
         <v>26000</v>
       </c>
       <c r="J49" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="K49" s="3">
         <v>26100</v>
       </c>
       <c r="L49" s="3">
+        <v>26100</v>
+      </c>
+      <c r="M49" s="3">
         <v>26200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>26300</v>
       </c>
       <c r="N49" s="3">
         <v>26300</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>26300</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
@@ -3031,8 +3142,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3185,7 +3305,7 @@
         <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -3197,7 +3317,7 @@
         <v>600</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -3206,19 +3326,19 @@
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E54" s="3">
         <v>34200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>54900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>70800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,58 +3534,59 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E57" s="3">
         <v>7000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>800</v>
       </c>
       <c r="Q57" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3475,23 +3609,23 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>10000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -3502,73 +3636,76 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E59" s="3">
         <v>9000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
@@ -3590,109 +3727,115 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E60" s="3">
         <v>16200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
-      </c>
-      <c r="U60" s="3">
-        <v>100</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3900</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
         <v>3900</v>
       </c>
       <c r="F61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G61" s="3">
         <v>4000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>5400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3714,55 +3857,58 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
       </c>
       <c r="Q62" s="3">
+        <v>500</v>
+      </c>
+      <c r="R62" s="3">
         <v>900</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1700</v>
       </c>
       <c r="S62" s="3">
         <v>1700</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E66" s="3">
         <v>23700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>33800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1800</v>
       </c>
       <c r="V66" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4211,31 +4379,34 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>11700</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>11800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>29600</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>63500</v>
-      </c>
-      <c r="S70" s="3">
-        <v>63900</v>
       </c>
       <c r="T70" s="3">
         <v>63900</v>
       </c>
       <c r="U70" s="3">
+        <v>63900</v>
+      </c>
+      <c r="V70" s="3">
         <v>64000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-167500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-166500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-158200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-145800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-139600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-131100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-127600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-123600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-119700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-117300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-114200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-111800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-800</v>
       </c>
       <c r="R72" s="3">
         <v>-800</v>
       </c>
       <c r="S72" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="T72" s="3">
         <v>-400</v>
       </c>
       <c r="U72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V72" s="3">
         <v>-300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,46 +4727,49 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>5000</v>
       </c>
       <c r="P76" s="3">
         <v>5000</v>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8300</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,16 +5019,17 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4845,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4857,19 +5056,19 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7100</v>
+        <v>-4700</v>
       </c>
       <c r="E89" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,20 +5692,23 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5498,37 +5728,40 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>17800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>34800</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13300</v>
+        <v>2900</v>
       </c>
       <c r="E100" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F100" s="3">
         <v>27900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5873,23 +6122,23 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -5897,19 +6146,19 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20800</v>
+        <v>-1800</v>
       </c>
       <c r="E102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F102" s="3">
         <v>19500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>PHUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,148 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30900</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -823,50 +826,53 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,41 +906,41 @@
         <v>1200</v>
       </c>
       <c r="E10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -953,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,47 +990,48 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>900</v>
       </c>
       <c r="K12" s="3">
         <v>900</v>
       </c>
       <c r="L12" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M12" s="3">
         <v>1100</v>
       </c>
       <c r="N12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,34 +1124,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1146,11 +1165,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6500</v>
       </c>
       <c r="K17" s="3">
         <v>6500</v>
       </c>
       <c r="L17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="M17" s="3">
         <v>7900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>37700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>200</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,29 +1447,30 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1454,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
@@ -1475,55 +1508,58 @@
         <v>200</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-10100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1545,31 +1581,34 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>4100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1578,13 +1617,13 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>200</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1595,8 +1634,8 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1610,78 +1649,84 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-22100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1698,11 +1743,11 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1714,19 +1759,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-22100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,29 +2261,32 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2234,19 +2303,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
@@ -2255,78 +2324,84 @@
         <v>-200</v>
       </c>
       <c r="V32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
-      </c>
-      <c r="V41" s="3">
-        <v>400</v>
       </c>
       <c r="W41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,58 +2794,61 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>900</v>
       </c>
       <c r="J43" s="3">
         <v>900</v>
       </c>
       <c r="K43" s="3">
+        <v>900</v>
+      </c>
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2770,31 +2862,34 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2835,50 +2930,53 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -2898,75 +2996,81 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4700</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3003,50 +3107,53 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
         <v>19700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>36900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>71600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>71200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>70800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>70400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
@@ -3066,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>100</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -3080,8 +3187,8 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3095,16 +3202,19 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E49" s="3">
         <v>25900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>26000</v>
       </c>
       <c r="F49" s="3">
         <v>26000</v>
@@ -3122,22 +3232,22 @@
         <v>26000</v>
       </c>
       <c r="K49" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="L49" s="3">
         <v>26100</v>
       </c>
       <c r="M49" s="3">
+        <v>26100</v>
+      </c>
+      <c r="N49" s="3">
         <v>26200</v>
-      </c>
-      <c r="N49" s="3">
-        <v>26300</v>
       </c>
       <c r="O49" s="3">
         <v>26300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>26300</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -3145,8 +3255,8 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,13 +3406,16 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
@@ -3308,7 +3427,7 @@
         <v>900</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
@@ -3320,7 +3439,7 @@
         <v>600</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -3329,19 +3448,19 @@
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>5800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E54" s="3">
         <v>32000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>54900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>70800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,61 +3664,62 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E57" s="3">
         <v>7100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
       </c>
       <c r="R57" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -3600,35 +3730,38 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>4900</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>10000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3639,76 +3772,79 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
@@ -3730,115 +3866,121 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E60" s="3">
         <v>14900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
-      </c>
-      <c r="V60" s="3">
-        <v>100</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3900</v>
       </c>
       <c r="F61" s="3">
         <v>3900</v>
       </c>
       <c r="G61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H61" s="3">
         <v>4000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>5400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3860,58 +4002,61 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>500</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
       </c>
       <c r="R62" s="3">
+        <v>500</v>
+      </c>
+      <c r="S62" s="3">
         <v>900</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1700</v>
       </c>
       <c r="T62" s="3">
         <v>1700</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>33800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>27700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>27500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1800</v>
       </c>
       <c r="W66" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4382,31 +4549,34 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>11700</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>11800</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>29600</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>63500</v>
-      </c>
-      <c r="T70" s="3">
-        <v>63900</v>
       </c>
       <c r="U70" s="3">
         <v>63900</v>
       </c>
       <c r="V70" s="3">
+        <v>63900</v>
+      </c>
+      <c r="W70" s="3">
         <v>64000</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-199300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-167500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-166500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-158200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-145800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-139600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-131100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-127600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-123600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-119700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-117300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-114200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-111800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-800</v>
       </c>
       <c r="S72" s="3">
         <v>-800</v>
       </c>
       <c r="T72" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="U72" s="3">
         <v>-400</v>
       </c>
       <c r="V72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W72" s="3">
         <v>-300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,49 +4912,52 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E76" s="3">
         <v>13000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5800</v>
-      </c>
-      <c r="P76" s="3">
-        <v>5000</v>
       </c>
       <c r="Q76" s="3">
         <v>5000</v>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,8 +5229,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5047,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -5059,19 +5257,19 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,23 +5921,26 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-44900</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5731,37 +5960,40 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>17800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>34800</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W94" s="3">
         <v>100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>27900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-17700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6125,23 +6373,23 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -6149,19 +6397,19 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6175,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>PHUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,162 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F8" s="3">
         <v>5400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>30900</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -829,56 +837,62 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="3">
         <v>4200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>11800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,56 +911,62 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="3">
         <v>1200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1200</v>
       </c>
-      <c r="F10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>900</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2200</v>
       </c>
       <c r="J10" s="3">
         <v>1400</v>
       </c>
       <c r="K10" s="3">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L10" s="3">
         <v>1400</v>
       </c>
       <c r="M10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O10" s="3">
         <v>3200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>19100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,53 +1017,55 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1100</v>
       </c>
       <c r="H12" s="3">
         <v>800</v>
       </c>
       <c r="I12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>800</v>
+      </c>
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,40 +1161,46 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F14" s="3">
         <v>8600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-2900</v>
       </c>
-      <c r="F14" s="3">
-        <v>8800</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I14" s="3">
         <v>5800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1168,14 +1208,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,55 +1338,57 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F17" s="3">
         <v>19200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
-        <v>19500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>10900</v>
-      </c>
       <c r="H17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>37700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1343,87 +1397,99 @@
         <v>600</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
+        <v>600</v>
+      </c>
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-13800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-9300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T18" s="3">
         <v>-600</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,35 +1514,37 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-18000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-800</v>
-      </c>
       <c r="H20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1490,82 +1558,88 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>300</v>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
       <c r="U20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V20" s="3">
         <v>200</v>
       </c>
       <c r="W20" s="3">
+        <v>200</v>
+      </c>
+      <c r="X20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-16800</v>
       </c>
       <c r="E21" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-10100</v>
-      </c>
       <c r="H21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-7200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,64 +1658,70 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I22" s="3">
         <v>2200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1652,58 +1732,64 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-32200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-12400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-400</v>
@@ -1712,28 +1798,34 @@
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1746,14 +1838,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1762,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,58 +1954,64 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-31800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-12400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-400</v>
@@ -1916,66 +2020,72 @@
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-31800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-12400</v>
-      </c>
       <c r="H27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-6200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-400</v>
@@ -1984,16 +2094,22 @@
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,35 +2398,41 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>18000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>800</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2306,84 +2446,90 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-300</v>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
       <c r="U32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V32" s="3">
         <v>-200</v>
       </c>
       <c r="W32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-31800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-12400</v>
-      </c>
       <c r="H33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-6200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-400</v>
@@ -2392,16 +2538,22 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,58 +2620,64 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-31800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-12400</v>
-      </c>
       <c r="H35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-6200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-400</v>
@@ -2528,89 +2686,101 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,61 +2833,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F41" s="3">
         <v>23100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
@@ -2724,13 +2898,19 @@
         <v>200</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,64 +2977,70 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
         <v>1200</v>
       </c>
       <c r="F43" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G43" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="H43" s="3">
         <v>700</v>
       </c>
       <c r="I43" s="3">
+        <v>900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2865,20 +3051,26 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F44" s="3">
         <v>2600</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2891,11 +3083,11 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2933,56 +3125,62 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F45" s="3">
         <v>33300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>600</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
@@ -2999,63 +3197,69 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F46" s="3">
         <v>60000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>26300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4700</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
@@ -3064,13 +3268,19 @@
         <v>200</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3110,56 +3320,62 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>19700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>19500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>36900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>71600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>71200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>70800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>70400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -3176,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3205,22 +3421,28 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F49" s="3">
         <v>36500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>25900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>26000</v>
       </c>
       <c r="H49" s="3">
         <v>26000</v>
@@ -3235,34 +3457,34 @@
         <v>26000</v>
       </c>
       <c r="L49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="M49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="N49" s="3">
         <v>26100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>26100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>26200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>26300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>26300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3643,25 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
-        <v>900</v>
-      </c>
       <c r="F52" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
@@ -3430,10 +3670,10 @@
         <v>900</v>
       </c>
       <c r="I52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="J52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -3442,31 +3682,31 @@
         <v>600</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>5800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>81400</v>
+      </c>
+      <c r="F54" s="3">
         <v>99300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>32000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>34200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>54900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>31800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>29400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>28200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>28800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>29100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>30400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>31000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>31400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>36900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>19700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>19600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>37000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>71800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>71300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>71100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>70800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,67 +3925,69 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F57" s="3">
         <v>6600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>8500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>9100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>10700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>10200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>8600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -3733,41 +3995,47 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F58" s="3">
         <v>4900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>10000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -3775,82 +4043,88 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F59" s="3">
         <v>18800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>12600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>13600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>16200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>8400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>8100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
@@ -3869,76 +4143,88 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F60" s="3">
         <v>30300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>14900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>30400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>26500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>26900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>20000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>21100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>19500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>17500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>16100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>20000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,47 +4232,47 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>5400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4005,64 +4291,70 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>4400</v>
       </c>
       <c r="E62" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="F62" s="3">
         <v>3700</v>
       </c>
       <c r="G62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>5100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>5700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>900</v>
-      </c>
-      <c r="T62" s="3">
-        <v>1700</v>
-      </c>
-      <c r="U62" s="3">
-        <v>1700</v>
       </c>
       <c r="V62" s="3">
         <v>1700</v>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F66" s="3">
         <v>34000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>23700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>38400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>33800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>34200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>27700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>27500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>25000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>23900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>22900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>20600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>31100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3200</v>
       </c>
       <c r="U66" s="3">
         <v>2500</v>
       </c>
       <c r="V66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="W66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X66" s="3">
         <v>2100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4552,31 +4888,37 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>11700</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>11800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>29600</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>63500</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>63900</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>63900</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>64000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-231300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-214200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-199300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-167500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-166500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-158200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-145800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-139600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-131100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-127600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-123600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-119700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-117300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-114200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-111800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,55 +5281,61 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>52000</v>
+      </c>
+      <c r="F76" s="3">
         <v>65300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>13000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>16600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>5000</v>
       </c>
       <c r="S76" s="3">
         <v>5000</v>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,131 +5429,143 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-31800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-12400</v>
-      </c>
       <c r="H81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-6200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-400</v>
@@ -5184,16 +5574,22 @@
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5232,11 +5630,11 @@
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5248,10 +5646,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -5260,22 +5658,22 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4700</v>
       </c>
-      <c r="F89" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,31 +6160,33 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,29 +6378,35 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-44900</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1500</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5963,37 +6423,43 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>17800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>34800</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W94" s="3">
-        <v>100</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,81 +6776,93 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F100" s="3">
         <v>70500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
-        <v>14600</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="I100" s="3">
         <v>27900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>7200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>6800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-17700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6376,46 +6874,46 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6426,72 +6924,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F102" s="3">
         <v>22200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="I102" s="3">
         <v>19500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-5300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>PHUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,169 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E8" s="3">
         <v>5500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>30900</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -843,8 +847,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,50 +859,50 @@
         <v>4000</v>
       </c>
       <c r="E9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="3">
         <v>5000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11800</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
@@ -917,59 +924,62 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1200</v>
       </c>
       <c r="G10" s="3">
         <v>1200</v>
       </c>
       <c r="H10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>19100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,56 +1032,57 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>900</v>
       </c>
       <c r="N12" s="3">
         <v>900</v>
       </c>
       <c r="O12" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="P12" s="3">
         <v>1100</v>
       </c>
       <c r="Q12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,43 +1184,46 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>12200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1214,11 +1234,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E17" s="3">
         <v>25200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>6500</v>
       </c>
       <c r="N17" s="3">
         <v>6500</v>
       </c>
       <c r="O17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="P17" s="3">
         <v>7900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>37700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
       <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-200</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,38 +1549,39 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-18000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1564,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>200</v>
@@ -1585,64 +1619,67 @@
         <v>200</v>
       </c>
       <c r="Y20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-16800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1664,40 +1701,43 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1706,13 +1746,13 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>200</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1723,8 +1763,8 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1738,82 +1778,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1824,11 +1870,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1844,11 +1890,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1860,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,38 +2471,41 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>18000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2452,19 +2522,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>3300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-200</v>
@@ -2473,87 +2543,93 @@
         <v>-200</v>
       </c>
       <c r="Y32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2921,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>400</v>
       </c>
       <c r="Z41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,67 +3073,70 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>900</v>
       </c>
       <c r="M43" s="3">
         <v>900</v>
       </c>
       <c r="N43" s="3">
+        <v>900</v>
+      </c>
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3057,23 +3150,26 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E44" s="3">
         <v>3500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2600</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3089,8 +3185,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -3131,59 +3227,62 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E45" s="3">
         <v>13800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -3203,84 +3302,90 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E46" s="3">
         <v>20800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>60000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4700</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3326,59 +3431,62 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
         <v>19700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>36900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>71600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>71200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>70800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>70400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1300</v>
       </c>
       <c r="F48" s="3">
         <v>1300</v>
       </c>
       <c r="G48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
@@ -3398,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>100</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3412,8 +3520,8 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3427,25 +3535,28 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E49" s="3">
         <v>36000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>36300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>36500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>25900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>26000</v>
       </c>
       <c r="I49" s="3">
         <v>26000</v>
@@ -3463,22 +3574,22 @@
         <v>26000</v>
       </c>
       <c r="N49" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="O49" s="3">
         <v>26100</v>
       </c>
       <c r="P49" s="3">
+        <v>26100</v>
+      </c>
+      <c r="Q49" s="3">
         <v>26200</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>26300</v>
       </c>
       <c r="R49" s="3">
         <v>26300</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="S49" s="3">
+        <v>26300</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
@@ -3486,8 +3597,8 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3658,13 +3778,13 @@
         <v>1700</v>
       </c>
       <c r="E52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F52" s="3">
         <v>1600</v>
       </c>
       <c r="G52" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
@@ -3676,7 +3796,7 @@
         <v>900</v>
       </c>
       <c r="K52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
@@ -3688,7 +3808,7 @@
         <v>600</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -3697,19 +3817,19 @@
         <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
         <v>5800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E54" s="3">
         <v>61200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>81400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>99300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>54900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>71300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>71100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>70800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4057,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3936,61 +4067,61 @@
         <v>7500</v>
       </c>
       <c r="E57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F57" s="3">
         <v>6800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9900</v>
-      </c>
-      <c r="S57" s="3">
-        <v>800</v>
       </c>
       <c r="T57" s="3">
         <v>800</v>
       </c>
       <c r="U57" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="V57" s="3">
         <v>500</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4001,44 +4132,47 @@
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>10000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -4049,85 +4183,88 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E59" s="3">
         <v>11600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
@@ -4149,82 +4286,88 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E60" s="3">
         <v>21200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>100</v>
       </c>
       <c r="Z60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4238,44 +4381,44 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3900</v>
       </c>
       <c r="I61" s="3">
         <v>3900</v>
       </c>
       <c r="J61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>300</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>5400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4297,67 +4440,70 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E62" s="3">
         <v>4400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5700</v>
-      </c>
-      <c r="S62" s="3">
-        <v>500</v>
       </c>
       <c r="T62" s="3">
         <v>500</v>
       </c>
       <c r="U62" s="3">
+        <v>500</v>
+      </c>
+      <c r="V62" s="3">
         <v>900</v>
-      </c>
-      <c r="V62" s="3">
-        <v>1700</v>
       </c>
       <c r="W62" s="3">
         <v>1700</v>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E66" s="3">
         <v>25500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>27500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2100</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1800</v>
       </c>
       <c r="Z66" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4894,31 +5062,34 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>11700</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>11800</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>29600</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>63500</v>
-      </c>
-      <c r="W70" s="3">
-        <v>63900</v>
       </c>
       <c r="X70" s="3">
         <v>63900</v>
       </c>
       <c r="Y70" s="3">
+        <v>63900</v>
+      </c>
+      <c r="Z70" s="3">
         <v>64000</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-239300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-231300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-214200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-199300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-167500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-166500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-158200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-145800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-139600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-131100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-127600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-123600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-119700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-117300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-114200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-111800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-800</v>
       </c>
       <c r="V72" s="3">
         <v>-800</v>
       </c>
       <c r="W72" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="X72" s="3">
         <v>-400</v>
       </c>
       <c r="Y72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,58 +5470,61 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E76" s="3">
         <v>35700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>65300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>5000</v>
       </c>
       <c r="T76" s="3">
         <v>5000</v>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5636,8 +5835,8 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5652,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -5664,19 +5863,19 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6173,8 +6394,8 @@
       <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>-100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -6188,8 +6409,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,32 +6611,35 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-44900</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6429,37 +6659,40 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>17800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>34800</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
       </c>
       <c r="Y94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z94" s="3">
         <v>100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1600</v>
+        <v>13900</v>
       </c>
       <c r="E100" s="3">
         <v>-1600</v>
       </c>
       <c r="F100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G100" s="3">
         <v>70500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>27900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-17700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6865,7 +7114,7 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -6880,23 +7129,23 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -6904,19 +7153,19 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-20800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>PHUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,182 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>4800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G8" s="3">
         <v>5500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>30900</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -850,65 +857,71 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>4200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>11800</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,65 +940,71 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2200</v>
       </c>
       <c r="M10" s="3">
         <v>1400</v>
       </c>
       <c r="N10" s="3">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="O10" s="3">
         <v>1400</v>
       </c>
       <c r="P10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R10" s="3">
         <v>3200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>19100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1004,8 +1023,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,62 +1058,64 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1100</v>
       </c>
       <c r="K12" s="3">
         <v>800</v>
       </c>
       <c r="L12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>800</v>
+      </c>
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1110,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,49 +1220,55 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>12200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>9400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>8600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>5800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>5500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1237,14 +1276,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1264,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,64 +1418,66 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F17" s="3">
         <v>12600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>25200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>21200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>19200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>37700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
@@ -1433,96 +1486,108 @@
         <v>600</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-19700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-14400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-13800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-9200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-8500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-6800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W18" s="3">
         <v>-600</v>
       </c>
       <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,44 +1615,46 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-18000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1601,91 +1668,97 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-3300</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
-        <v>200</v>
-      </c>
-      <c r="V20" s="3">
-        <v>300</v>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W20" s="3">
         <v>200</v>
       </c>
       <c r="X20" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y20" s="3">
         <v>200</v>
       </c>
       <c r="Z20" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-16800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-14400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-12100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-9700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1704,73 +1777,79 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1781,67 +1860,73 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-17100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-14900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-32200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-14300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-10200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>-400</v>
@@ -1850,16 +1935,22 @@
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1873,14 +1964,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1893,14 +1984,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1909,22 +2000,22 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -1935,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,67 +2109,73 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-17100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-14900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-31800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-9800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>-400</v>
@@ -2081,75 +2184,81 @@
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-17100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-14900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-31800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-14300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-9800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>-400</v>
@@ -2158,16 +2267,22 @@
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,44 +2607,50 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>18000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2525,93 +2664,99 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>3300</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-300</v>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W32" s="3">
         <v>-200</v>
       </c>
       <c r="X32" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Y32" s="3">
         <v>-200</v>
       </c>
       <c r="Z32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-17100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-14900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-31800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-14300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-9800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>-400</v>
@@ -2620,16 +2765,22 @@
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,67 +2856,73 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-17100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-14900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-31800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-14300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-9800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>-400</v>
@@ -2774,98 +2931,110 @@
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,70 +3093,72 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F41" s="3">
         <v>8500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>23500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
@@ -2994,13 +3167,19 @@
         <v>200</v>
       </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB41" s="3">
         <v>400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,73 +3255,79 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1000</v>
       </c>
       <c r="H43" s="3">
         <v>1200</v>
       </c>
       <c r="I43" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="J43" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
       </c>
       <c r="L43" s="3">
+        <v>900</v>
+      </c>
+      <c r="M43" s="3">
+        <v>700</v>
+      </c>
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3153,29 +3338,35 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3188,11 +3379,11 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3230,65 +3421,71 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F45" s="3">
         <v>13400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>13800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>25500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>33300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>600</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
       </c>
       <c r="O45" s="3">
+        <v>600</v>
+      </c>
+      <c r="P45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
@@ -3305,72 +3502,78 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F46" s="3">
         <v>26900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>20800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>42300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>60000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>26300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4700</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>100</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>100</v>
@@ -3379,13 +3582,19 @@
         <v>200</v>
       </c>
       <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3434,65 +3643,71 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
         <v>19700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>19500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>36900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>71600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>71200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>70800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>70400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F48" s="3">
         <v>4100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -3509,25 +3724,25 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3538,31 +3753,37 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F49" s="3">
         <v>35700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>36000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>36300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>36500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>25900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>26000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>26000</v>
       </c>
       <c r="K49" s="3">
         <v>26000</v>
@@ -3577,34 +3798,34 @@
         <v>26000</v>
       </c>
       <c r="O49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="P49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>26100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>26100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>26200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>26300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>26300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3615,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,28 +4002,34 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>900</v>
       </c>
       <c r="J52" s="3">
         <v>900</v>
@@ -3799,10 +4038,10 @@
         <v>900</v>
       </c>
       <c r="L52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
@@ -3811,31 +4050,31 @@
         <v>600</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
       </c>
       <c r="S52" s="3">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
         <v>5800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3846,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>54800</v>
+      </c>
+      <c r="F54" s="3">
         <v>68500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>61200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>81400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>99300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>32000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>34200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>54900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>31800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>29400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>28200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>28800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>29100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>30400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>31000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>31400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>36900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>19700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>19600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>37000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>71800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>71300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>71100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>70800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,76 +4317,78 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>7100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>9100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>9700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>10700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>10200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>9100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>8600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>9900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
@@ -4135,50 +4396,56 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F58" s="3">
         <v>12700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>10000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -4186,91 +4453,97 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F59" s="3">
         <v>9700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>15800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>13600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>16200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>9700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>8400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>8100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
@@ -4289,85 +4562,97 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>25600</v>
+      </c>
+      <c r="F60" s="3">
         <v>29900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>21200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>26100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>30300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>16200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>30400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>26500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>26900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>20000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>21100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>19800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>19500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>17500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>16100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>20000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4384,47 +4669,47 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>5400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4443,73 +4728,79 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5800</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
         <v>4400</v>
       </c>
       <c r="F62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H62" s="3">
         <v>3300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3000</v>
       </c>
       <c r="I62" s="3">
         <v>3700</v>
       </c>
       <c r="J62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L62" s="3">
         <v>4000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>5100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>4500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>5700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>900</v>
-      </c>
-      <c r="W62" s="3">
-        <v>1700</v>
-      </c>
-      <c r="X62" s="3">
-        <v>1700</v>
       </c>
       <c r="Y62" s="3">
         <v>1700</v>
@@ -4520,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F66" s="3">
         <v>35700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>25500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>29400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>34000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>23700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>38400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>33800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>34200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>27700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>27500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>25000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>23900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>22900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>20600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>31100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2700</v>
-      </c>
-      <c r="V66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="W66" s="3">
-        <v>3200</v>
       </c>
       <c r="X66" s="3">
         <v>2500</v>
       </c>
       <c r="Y66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AA66" s="3">
         <v>2100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5065,31 +5400,37 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>11700</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>11800</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>29600</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>63500</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>63900</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>63900</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AB70" s="3">
         <v>64000</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AC70" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-254500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-250200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-239300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-231300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-214200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-199300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-167500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-166500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-158200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-145800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-139600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-131100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-127600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-123600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-119700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-117300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-114200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-111800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,64 +5838,70 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F76" s="3">
         <v>32800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>35700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>52000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>65300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>13000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>10500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>8100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>10800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5800</v>
-      </c>
-      <c r="T76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>5000</v>
       </c>
       <c r="V76" s="3">
         <v>5000</v>
@@ -5550,8 +5921,14 @@
       <c r="AA76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,149 +6004,161 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-17100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-14900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-31800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-14300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-9800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>-400</v>
@@ -5778,16 +6167,22 @@
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,34 +6210,36 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5854,10 +6251,10 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5866,22 +6263,22 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -5892,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-7300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-6600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,40 +6822,42 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6460,8 +6901,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,38 +7067,44 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-44900</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6662,37 +7121,43 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>17800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>34800</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>100</v>
       </c>
       <c r="AA94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,100 +7513,112 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F100" s="3">
         <v>13900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>70500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-13300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>27900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>6800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-17700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -7132,46 +7629,46 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -7182,81 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F102" s="3">
         <v>5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-8100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-12300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>22200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-20800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>19500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-5300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHUN_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,189 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E8" s="3">
         <v>4700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4800</v>
       </c>
       <c r="F8" s="3">
         <v>4800</v>
       </c>
       <c r="G8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H8" s="3">
         <v>5500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>30900</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
@@ -863,68 +867,71 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4000</v>
       </c>
       <c r="G9" s="3">
         <v>4000</v>
       </c>
       <c r="H9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I9" s="3">
         <v>5000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>11800</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
@@ -946,68 +953,71 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1200</v>
       </c>
       <c r="J10" s="3">
         <v>1200</v>
       </c>
       <c r="K10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>19100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,65 +1073,66 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
-      </c>
-      <c r="P12" s="3">
-        <v>900</v>
       </c>
       <c r="Q12" s="3">
         <v>900</v>
       </c>
       <c r="R12" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="S12" s="3">
         <v>1100</v>
       </c>
       <c r="T12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,52 +1243,55 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>12200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1282,11 +1302,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E17" s="3">
         <v>12000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>6500</v>
       </c>
       <c r="Q17" s="3">
         <v>6500</v>
       </c>
       <c r="R17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="S17" s="3">
         <v>7900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>37700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>200</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
       </c>
       <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC17" s="3">
         <v>300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-200</v>
       </c>
       <c r="AA18" s="3">
         <v>-200</v>
       </c>
       <c r="AB18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,47 +1650,48 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-18000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1674,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-3300</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>200</v>
       </c>
       <c r="Z20" s="3">
         <v>200</v>
@@ -1695,73 +1729,76 @@
         <v>200</v>
       </c>
       <c r="AB20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-9700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1783,49 +1820,52 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1834,13 +1874,13 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>200</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1851,8 +1891,8 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1866,91 +1906,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-17100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-32200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1970,11 +2016,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1990,11 +2036,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -2006,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-400</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-17100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-14900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-31800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-17100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,47 +2680,50 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>18000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2670,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>3300</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-200</v>
       </c>
       <c r="Z32" s="3">
         <v>-200</v>
@@ -2691,96 +2761,102 @@
         <v>-200</v>
       </c>
       <c r="AB32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AC32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-17100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-17100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>200</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>400</v>
       </c>
       <c r="AC41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,76 +3351,79 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>900</v>
       </c>
       <c r="P43" s="3">
         <v>900</v>
       </c>
       <c r="Q43" s="3">
+        <v>900</v>
+      </c>
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3344,32 +3437,35 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E44" s="3">
         <v>2700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3385,8 +3481,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3427,68 +3523,71 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>33300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
@@ -3508,93 +3607,99 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E46" s="3">
         <v>7900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>42300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>60000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>26300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4700</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
         <v>100</v>
       </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3649,68 +3754,71 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
         <v>19700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>19500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>36900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>71600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>71200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>70800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>70400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>70500</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1300</v>
       </c>
       <c r="I48" s="3">
         <v>1300</v>
       </c>
       <c r="J48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -3730,13 +3838,13 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3">
+        <v>100</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
@@ -3744,8 +3852,8 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
@@ -3759,34 +3867,37 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E49" s="3">
         <v>33500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>33600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>35700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>36000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>36300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>36500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>25900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>26000</v>
       </c>
       <c r="L49" s="3">
         <v>26000</v>
@@ -3804,22 +3915,22 @@
         <v>26000</v>
       </c>
       <c r="Q49" s="3">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="R49" s="3">
         <v>26100</v>
       </c>
       <c r="S49" s="3">
+        <v>26100</v>
+      </c>
+      <c r="T49" s="3">
         <v>26200</v>
-      </c>
-      <c r="T49" s="3">
-        <v>26300</v>
       </c>
       <c r="U49" s="3">
         <v>26300</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
+      <c r="V49" s="3">
+        <v>26300</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
@@ -3827,8 +3938,8 @@
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4020,19 +4140,19 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>1700</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>1700</v>
       </c>
       <c r="H52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I52" s="3">
         <v>1600</v>
       </c>
       <c r="J52" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K52" s="3">
         <v>900</v>
@@ -4044,7 +4164,7 @@
         <v>900</v>
       </c>
       <c r="N52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="O52" s="3">
         <v>600</v>
@@ -4056,7 +4176,7 @@
         <v>600</v>
       </c>
       <c r="R52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
@@ -4065,19 +4185,19 @@
         <v>300</v>
       </c>
       <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
         <v>5800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E54" s="3">
         <v>45500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>54800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>68500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>61200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>81400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>99300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>71800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>71300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>71100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>70800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,79 +4449,80 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E57" s="3">
         <v>7800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7500</v>
       </c>
       <c r="G57" s="3">
         <v>7500</v>
       </c>
       <c r="H57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I57" s="3">
         <v>6800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>10700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>10200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>9100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>9900</v>
-      </c>
-      <c r="V57" s="3">
-        <v>800</v>
       </c>
       <c r="W57" s="3">
         <v>800</v>
       </c>
       <c r="X57" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Y57" s="3">
         <v>500</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AA57" s="3">
         <v>100</v>
@@ -4402,53 +4533,56 @@
       <c r="AC57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E58" s="3">
         <v>5700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>10000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -4459,94 +4593,97 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>2000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8100</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
@@ -4568,91 +4705,97 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E60" s="3">
         <v>19600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>25600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>29900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>20000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>400</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>100</v>
       </c>
       <c r="AC60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4675,44 +4818,44 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>3900</v>
       </c>
       <c r="L61" s="3">
         <v>3900</v>
       </c>
       <c r="M61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N61" s="3">
         <v>4000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1100</v>
-      </c>
-      <c r="R61" s="3">
-        <v>300</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>5400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4734,76 +4877,79 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E62" s="3">
         <v>3900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5700</v>
-      </c>
-      <c r="V62" s="3">
-        <v>500</v>
       </c>
       <c r="W62" s="3">
         <v>500</v>
       </c>
       <c r="X62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y62" s="3">
         <v>900</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>1700</v>
       </c>
       <c r="Z62" s="3">
         <v>1700</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E66" s="3">
         <v>23600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>30000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>25000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2100</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>1800</v>
       </c>
       <c r="AC66" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5406,31 +5574,34 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>11700</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>11800</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>29600</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>63500</v>
-      </c>
-      <c r="Z70" s="3">
-        <v>63900</v>
       </c>
       <c r="AA70" s="3">
         <v>63900</v>
       </c>
       <c r="AB70" s="3">
+        <v>63900</v>
+      </c>
+      <c r="AC70" s="3">
         <v>64000</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AD70" s="3">
         <v>64200</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-261000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-254500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-250200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-239300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-231300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-214200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-199300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-167500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-166500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-158200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-145800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-139600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-131100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-127600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-123600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-119700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-117300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-114200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-111800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-800</v>
       </c>
       <c r="Y72" s="3">
         <v>-800</v>
       </c>
       <c r="Z72" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="AA72" s="3">
         <v>-400</v>
       </c>
       <c r="AB72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,67 +6027,70 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E76" s="3">
         <v>21900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>35700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>65300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5800</v>
-      </c>
-      <c r="V76" s="3">
-        <v>5000</v>
       </c>
       <c r="W76" s="3">
         <v>5000</v>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-17100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6238,11 +6437,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -6257,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -6269,19 +6468,19 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>400</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-1800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6836,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -6845,13 +7066,13 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -6859,8 +7080,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,41 +7300,44 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E94" s="3">
         <v>10800</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-44900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -7127,37 +7357,40 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>17800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>34800</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA94" s="3">
         <v>-100</v>
       </c>
       <c r="AB94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC94" s="3">
         <v>100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13900</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1600</v>
       </c>
       <c r="H100" s="3">
         <v>-1600</v>
       </c>
       <c r="I100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J100" s="3">
         <v>70500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-17700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7611,16 +7860,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -7635,23 +7884,23 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -7659,19 +7908,19 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
         <v>-100</v>
       </c>
       <c r="AB102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>
